--- a/control/system_response_data.xlsx
+++ b/control/system_response_data.xlsx
@@ -455,10 +455,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>640</v>
+        <v>320</v>
       </c>
       <c r="C2" t="n">
-        <v>992</v>
+        <v>496</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>0.5</v>
       </c>
       <c r="B3" t="n">
-        <v>630</v>
+        <v>310</v>
       </c>
       <c r="C3" t="n">
-        <v>1008.5</v>
+        <v>496.5</v>
       </c>
     </row>
     <row r="4">
@@ -477,10 +477,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>620</v>
+        <v>300</v>
       </c>
       <c r="C4" t="n">
-        <v>1024.5</v>
+        <v>496.5</v>
       </c>
     </row>
     <row r="5">
@@ -488,10 +488,10 @@
         <v>1.5</v>
       </c>
       <c r="B5" t="n">
-        <v>610</v>
+        <v>290</v>
       </c>
       <c r="C5" t="n">
-        <v>1040</v>
+        <v>496</v>
       </c>
     </row>
     <row r="6">
@@ -499,10 +499,10 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>600</v>
+        <v>280</v>
       </c>
       <c r="C6" t="n">
-        <v>1055</v>
+        <v>495</v>
       </c>
     </row>
     <row r="7">
@@ -510,10 +510,10 @@
         <v>2.5</v>
       </c>
       <c r="B7" t="n">
-        <v>590</v>
+        <v>270</v>
       </c>
       <c r="C7" t="n">
-        <v>1069.5</v>
+        <v>493.5</v>
       </c>
     </row>
     <row r="8">
@@ -521,10 +521,10 @@
         <v>3</v>
       </c>
       <c r="B8" t="n">
-        <v>580</v>
+        <v>260</v>
       </c>
       <c r="C8" t="n">
-        <v>1083.5</v>
+        <v>491.5</v>
       </c>
     </row>
     <row r="9">
@@ -532,10 +532,10 @@
         <v>3.5</v>
       </c>
       <c r="B9" t="n">
-        <v>570</v>
+        <v>250</v>
       </c>
       <c r="C9" t="n">
-        <v>1097</v>
+        <v>489</v>
       </c>
     </row>
     <row r="10">
@@ -543,10 +543,10 @@
         <v>4</v>
       </c>
       <c r="B10" t="n">
-        <v>560</v>
+        <v>240</v>
       </c>
       <c r="C10" t="n">
-        <v>1110</v>
+        <v>486</v>
       </c>
     </row>
     <row r="11">
@@ -554,10 +554,10 @@
         <v>4.5</v>
       </c>
       <c r="B11" t="n">
-        <v>550</v>
+        <v>230</v>
       </c>
       <c r="C11" t="n">
-        <v>1122.5</v>
+        <v>482.5</v>
       </c>
     </row>
     <row r="12">
@@ -565,10 +565,10 @@
         <v>5</v>
       </c>
       <c r="B12" t="n">
-        <v>540</v>
+        <v>220</v>
       </c>
       <c r="C12" t="n">
-        <v>1134.5</v>
+        <v>478.5</v>
       </c>
     </row>
     <row r="13">
@@ -576,10 +576,10 @@
         <v>5.5</v>
       </c>
       <c r="B13" t="n">
-        <v>530</v>
+        <v>210</v>
       </c>
       <c r="C13" t="n">
-        <v>1146</v>
+        <v>474</v>
       </c>
     </row>
     <row r="14">
@@ -587,10 +587,10 @@
         <v>6</v>
       </c>
       <c r="B14" t="n">
-        <v>520</v>
+        <v>200</v>
       </c>
       <c r="C14" t="n">
-        <v>1157</v>
+        <v>469</v>
       </c>
     </row>
     <row r="15">
@@ -598,10 +598,10 @@
         <v>6.5</v>
       </c>
       <c r="B15" t="n">
-        <v>510</v>
+        <v>190</v>
       </c>
       <c r="C15" t="n">
-        <v>1167.5</v>
+        <v>463.5</v>
       </c>
     </row>
     <row r="16">
@@ -609,10 +609,10 @@
         <v>7</v>
       </c>
       <c r="B16" t="n">
-        <v>500</v>
+        <v>180</v>
       </c>
       <c r="C16" t="n">
-        <v>1177.5</v>
+        <v>457.5</v>
       </c>
     </row>
     <row r="17">
@@ -620,10 +620,10 @@
         <v>7.5</v>
       </c>
       <c r="B17" t="n">
-        <v>490</v>
+        <v>170</v>
       </c>
       <c r="C17" t="n">
-        <v>1187</v>
+        <v>451</v>
       </c>
     </row>
     <row r="18">
@@ -631,10 +631,10 @@
         <v>8</v>
       </c>
       <c r="B18" t="n">
-        <v>480</v>
+        <v>160</v>
       </c>
       <c r="C18" t="n">
-        <v>1196</v>
+        <v>444</v>
       </c>
     </row>
     <row r="19">
@@ -642,10 +642,10 @@
         <v>8.5</v>
       </c>
       <c r="B19" t="n">
-        <v>470</v>
+        <v>150</v>
       </c>
       <c r="C19" t="n">
-        <v>1204.5</v>
+        <v>436.5</v>
       </c>
     </row>
     <row r="20">
@@ -653,10 +653,10 @@
         <v>9</v>
       </c>
       <c r="B20" t="n">
-        <v>460</v>
+        <v>140</v>
       </c>
       <c r="C20" t="n">
-        <v>1212.5</v>
+        <v>428.5</v>
       </c>
     </row>
     <row r="21">
@@ -664,10 +664,10 @@
         <v>9.5</v>
       </c>
       <c r="B21" t="n">
-        <v>450</v>
+        <v>130</v>
       </c>
       <c r="C21" t="n">
-        <v>1220</v>
+        <v>420</v>
       </c>
     </row>
     <row r="22">
@@ -675,10 +675,10 @@
         <v>10</v>
       </c>
       <c r="B22" t="n">
-        <v>440</v>
+        <v>120</v>
       </c>
       <c r="C22" t="n">
-        <v>1227</v>
+        <v>411</v>
       </c>
     </row>
     <row r="23">
@@ -686,10 +686,10 @@
         <v>10.5</v>
       </c>
       <c r="B23" t="n">
-        <v>430</v>
+        <v>110</v>
       </c>
       <c r="C23" t="n">
-        <v>1233.5</v>
+        <v>401.5</v>
       </c>
     </row>
     <row r="24">
@@ -697,10 +697,10 @@
         <v>11</v>
       </c>
       <c r="B24" t="n">
-        <v>420</v>
+        <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1239.5</v>
+        <v>391.5</v>
       </c>
     </row>
     <row r="25">
@@ -708,10 +708,10 @@
         <v>11.5</v>
       </c>
       <c r="B25" t="n">
-        <v>410</v>
+        <v>90</v>
       </c>
       <c r="C25" t="n">
-        <v>1245</v>
+        <v>381</v>
       </c>
     </row>
     <row r="26">
@@ -719,10 +719,10 @@
         <v>12</v>
       </c>
       <c r="B26" t="n">
-        <v>400</v>
+        <v>80</v>
       </c>
       <c r="C26" t="n">
-        <v>1250</v>
+        <v>370</v>
       </c>
     </row>
     <row r="27">
@@ -730,10 +730,10 @@
         <v>12.5</v>
       </c>
       <c r="B27" t="n">
-        <v>390</v>
+        <v>70</v>
       </c>
       <c r="C27" t="n">
-        <v>1254.5</v>
+        <v>358.5</v>
       </c>
     </row>
     <row r="28">
@@ -741,10 +741,10 @@
         <v>13</v>
       </c>
       <c r="B28" t="n">
-        <v>380</v>
+        <v>60</v>
       </c>
       <c r="C28" t="n">
-        <v>1258.5</v>
+        <v>346.5</v>
       </c>
     </row>
     <row r="29">
@@ -752,10 +752,10 @@
         <v>13.5</v>
       </c>
       <c r="B29" t="n">
-        <v>370</v>
+        <v>50</v>
       </c>
       <c r="C29" t="n">
-        <v>1262</v>
+        <v>334</v>
       </c>
     </row>
     <row r="30">
@@ -763,10 +763,10 @@
         <v>14</v>
       </c>
       <c r="B30" t="n">
-        <v>360</v>
+        <v>40</v>
       </c>
       <c r="C30" t="n">
-        <v>1265</v>
+        <v>321</v>
       </c>
     </row>
     <row r="31">
@@ -774,10 +774,10 @@
         <v>14.5</v>
       </c>
       <c r="B31" t="n">
-        <v>350</v>
+        <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>1267.5</v>
+        <v>307.5</v>
       </c>
     </row>
     <row r="32">
@@ -785,10 +785,10 @@
         <v>15</v>
       </c>
       <c r="B32" t="n">
-        <v>340</v>
+        <v>20</v>
       </c>
       <c r="C32" t="n">
-        <v>1269.5</v>
+        <v>293.5</v>
       </c>
     </row>
     <row r="33">
@@ -796,10 +796,10 @@
         <v>15.5</v>
       </c>
       <c r="B33" t="n">
-        <v>330</v>
+        <v>10</v>
       </c>
       <c r="C33" t="n">
-        <v>1271</v>
+        <v>279</v>
       </c>
     </row>
     <row r="34">
@@ -807,10 +807,10 @@
         <v>16</v>
       </c>
       <c r="B34" t="n">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>1272</v>
+        <v>264</v>
       </c>
     </row>
     <row r="35">
@@ -818,10 +818,10 @@
         <v>16.5</v>
       </c>
       <c r="B35" t="n">
-        <v>310</v>
+        <v>-10</v>
       </c>
       <c r="C35" t="n">
-        <v>1272.5</v>
+        <v>248.5</v>
       </c>
     </row>
     <row r="36">
@@ -829,10 +829,10 @@
         <v>17</v>
       </c>
       <c r="B36" t="n">
-        <v>300</v>
+        <v>-20</v>
       </c>
       <c r="C36" t="n">
-        <v>1272.5</v>
+        <v>232.5</v>
       </c>
     </row>
     <row r="37">
@@ -840,10 +840,10 @@
         <v>17.5</v>
       </c>
       <c r="B37" t="n">
-        <v>290</v>
+        <v>-30</v>
       </c>
       <c r="C37" t="n">
-        <v>1272</v>
+        <v>216</v>
       </c>
     </row>
     <row r="38">
@@ -851,10 +851,10 @@
         <v>18</v>
       </c>
       <c r="B38" t="n">
-        <v>280</v>
+        <v>-40</v>
       </c>
       <c r="C38" t="n">
-        <v>1271</v>
+        <v>199</v>
       </c>
     </row>
     <row r="39">
@@ -862,10 +862,10 @@
         <v>18.5</v>
       </c>
       <c r="B39" t="n">
-        <v>270</v>
+        <v>-50</v>
       </c>
       <c r="C39" t="n">
-        <v>1269.5</v>
+        <v>181.5</v>
       </c>
     </row>
     <row r="40">
@@ -873,10 +873,10 @@
         <v>19</v>
       </c>
       <c r="B40" t="n">
-        <v>260</v>
+        <v>-60</v>
       </c>
       <c r="C40" t="n">
-        <v>1267.5</v>
+        <v>163.5</v>
       </c>
     </row>
     <row r="41">
@@ -884,10 +884,10 @@
         <v>19.5</v>
       </c>
       <c r="B41" t="n">
-        <v>250</v>
+        <v>-70</v>
       </c>
       <c r="C41" t="n">
-        <v>1265</v>
+        <v>145</v>
       </c>
     </row>
     <row r="42">
@@ -895,10 +895,10 @@
         <v>20</v>
       </c>
       <c r="B42" t="n">
-        <v>240</v>
+        <v>-80</v>
       </c>
       <c r="C42" t="n">
-        <v>1262</v>
+        <v>126</v>
       </c>
     </row>
     <row r="43">
@@ -906,10 +906,10 @@
         <v>20.5</v>
       </c>
       <c r="B43" t="n">
-        <v>230</v>
+        <v>-90</v>
       </c>
       <c r="C43" t="n">
-        <v>1258.5</v>
+        <v>106.5</v>
       </c>
     </row>
     <row r="44">
@@ -917,10 +917,10 @@
         <v>21</v>
       </c>
       <c r="B44" t="n">
-        <v>220</v>
+        <v>-100</v>
       </c>
       <c r="C44" t="n">
-        <v>1254.5</v>
+        <v>86.5</v>
       </c>
     </row>
     <row r="45">
@@ -928,10 +928,10 @@
         <v>21.5</v>
       </c>
       <c r="B45" t="n">
-        <v>210</v>
+        <v>-110</v>
       </c>
       <c r="C45" t="n">
-        <v>1250</v>
+        <v>66</v>
       </c>
     </row>
     <row r="46">
@@ -939,10 +939,10 @@
         <v>22</v>
       </c>
       <c r="B46" t="n">
-        <v>200</v>
+        <v>-120</v>
       </c>
       <c r="C46" t="n">
-        <v>1245</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47">
@@ -950,10 +950,10 @@
         <v>22.5</v>
       </c>
       <c r="B47" t="n">
-        <v>190</v>
+        <v>-130</v>
       </c>
       <c r="C47" t="n">
-        <v>1239.5</v>
+        <v>23.5</v>
       </c>
     </row>
     <row r="48">
@@ -961,10 +961,10 @@
         <v>23</v>
       </c>
       <c r="B48" t="n">
-        <v>180</v>
+        <v>-140</v>
       </c>
       <c r="C48" t="n">
-        <v>1233.5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="49">
@@ -972,10 +972,10 @@
         <v>23.5</v>
       </c>
       <c r="B49" t="n">
-        <v>170</v>
+        <v>-150</v>
       </c>
       <c r="C49" t="n">
-        <v>1227</v>
+        <v>-21</v>
       </c>
     </row>
     <row r="50">
@@ -983,10 +983,10 @@
         <v>24</v>
       </c>
       <c r="B50" t="n">
-        <v>160</v>
+        <v>-160</v>
       </c>
       <c r="C50" t="n">
-        <v>1220</v>
+        <v>-44</v>
       </c>
     </row>
     <row r="51">
@@ -994,10 +994,10 @@
         <v>24.5</v>
       </c>
       <c r="B51" t="n">
-        <v>150</v>
+        <v>-170</v>
       </c>
       <c r="C51" t="n">
-        <v>1212.5</v>
+        <v>-67.5</v>
       </c>
     </row>
     <row r="52">
@@ -1005,10 +1005,10 @@
         <v>25</v>
       </c>
       <c r="B52" t="n">
-        <v>140</v>
+        <v>-180</v>
       </c>
       <c r="C52" t="n">
-        <v>1204.5</v>
+        <v>-91.5</v>
       </c>
     </row>
     <row r="53">
@@ -1016,10 +1016,10 @@
         <v>25.5</v>
       </c>
       <c r="B53" t="n">
-        <v>130</v>
+        <v>-190</v>
       </c>
       <c r="C53" t="n">
-        <v>1196</v>
+        <v>-116</v>
       </c>
     </row>
     <row r="54">
@@ -1027,10 +1027,10 @@
         <v>26</v>
       </c>
       <c r="B54" t="n">
-        <v>120</v>
+        <v>-200</v>
       </c>
       <c r="C54" t="n">
-        <v>1187</v>
+        <v>-141</v>
       </c>
     </row>
     <row r="55">
@@ -1038,10 +1038,10 @@
         <v>26.5</v>
       </c>
       <c r="B55" t="n">
-        <v>110</v>
+        <v>-210</v>
       </c>
       <c r="C55" t="n">
-        <v>1177.5</v>
+        <v>-166.5</v>
       </c>
     </row>
     <row r="56">
@@ -1049,10 +1049,10 @@
         <v>27</v>
       </c>
       <c r="B56" t="n">
-        <v>100</v>
+        <v>-220</v>
       </c>
       <c r="C56" t="n">
-        <v>1167.5</v>
+        <v>-192.5</v>
       </c>
     </row>
     <row r="57">
@@ -1060,10 +1060,10 @@
         <v>27.5</v>
       </c>
       <c r="B57" t="n">
-        <v>90</v>
+        <v>-230</v>
       </c>
       <c r="C57" t="n">
-        <v>1157</v>
+        <v>-219</v>
       </c>
     </row>
     <row r="58">
@@ -1071,10 +1071,10 @@
         <v>28</v>
       </c>
       <c r="B58" t="n">
-        <v>80</v>
+        <v>-240</v>
       </c>
       <c r="C58" t="n">
-        <v>1146</v>
+        <v>-246</v>
       </c>
     </row>
     <row r="59">
@@ -1082,10 +1082,10 @@
         <v>28.5</v>
       </c>
       <c r="B59" t="n">
-        <v>70</v>
+        <v>-250</v>
       </c>
       <c r="C59" t="n">
-        <v>1134.5</v>
+        <v>-273.5</v>
       </c>
     </row>
     <row r="60">
@@ -1093,10 +1093,10 @@
         <v>29</v>
       </c>
       <c r="B60" t="n">
-        <v>60</v>
+        <v>-260</v>
       </c>
       <c r="C60" t="n">
-        <v>1122.5</v>
+        <v>-301.5</v>
       </c>
     </row>
     <row r="61">
@@ -1104,10 +1104,10 @@
         <v>29.5</v>
       </c>
       <c r="B61" t="n">
-        <v>50</v>
+        <v>-270</v>
       </c>
       <c r="C61" t="n">
-        <v>1110</v>
+        <v>-330</v>
       </c>
     </row>
     <row r="62">
@@ -1115,10 +1115,10 @@
         <v>30</v>
       </c>
       <c r="B62" t="n">
-        <v>40</v>
+        <v>-280</v>
       </c>
       <c r="C62" t="n">
-        <v>1097</v>
+        <v>-359</v>
       </c>
     </row>
     <row r="63">
@@ -1126,10 +1126,10 @@
         <v>30.5</v>
       </c>
       <c r="B63" t="n">
-        <v>30</v>
+        <v>-290</v>
       </c>
       <c r="C63" t="n">
-        <v>1083.5</v>
+        <v>-388.5</v>
       </c>
     </row>
     <row r="64">
@@ -1137,10 +1137,10 @@
         <v>31</v>
       </c>
       <c r="B64" t="n">
-        <v>20</v>
+        <v>-300</v>
       </c>
       <c r="C64" t="n">
-        <v>1069.5</v>
+        <v>-418.5</v>
       </c>
     </row>
     <row r="65">
@@ -1148,10 +1148,10 @@
         <v>31.5</v>
       </c>
       <c r="B65" t="n">
-        <v>10</v>
+        <v>-310</v>
       </c>
       <c r="C65" t="n">
-        <v>1055</v>
+        <v>-449</v>
       </c>
     </row>
     <row r="66">
@@ -1159,10 +1159,10 @@
         <v>32</v>
       </c>
       <c r="B66" t="n">
-        <v>0</v>
+        <v>-320</v>
       </c>
       <c r="C66" t="n">
-        <v>1040</v>
+        <v>-480</v>
       </c>
     </row>
   </sheetData>
